--- a/Article Category Data/Categories2023-04-21 004927.131827.xlsx
+++ b/Article Category Data/Categories2023-04-21 004927.131827.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C743DA-8973-4329-9D59-5175B5D4FC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408" count="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="224">
   <si>
     <t>title</t>
   </si>
@@ -108,8 +116,7 @@
             &lt;/div&gt;
         &lt;/div&gt;
     &lt;/body&gt;
-&lt;/html&gt;
-</t>
+&lt;/html&gt;</t>
   </si>
   <si>
     <t>سول ایوی ایشن کے عملے نے مسافر کو لاکھوں روپے اور قیمتی سامان لوٹا دیا</t>
@@ -118,7 +125,7 @@
     <t>https://www.express.pk/story/2472198/1</t>
   </si>
   <si>
-    <t>ترکی کے نرم گو رہنما، کمال قلیچ‌داراوغلو صدر اردوغان  کے لیے خطرہ بن گئے ہیں </t>
+    <t>ترکی کے نرم گو رہنما، کمال قلیچ‌داراوغلو صدر اردوغان  کے لیے خطرہ بن گئے ہیں</t>
   </si>
   <si>
     <t>https://www.bbc.com/urdu/articles/ce9x1l21325o</t>
@@ -250,7 +257,7 @@
     <t>https://www.jasarat.com/2023/04/20/khawaja-asif-53/</t>
   </si>
   <si>
-    <t>شوال کا چاند نظر نہیں آیا، عیدالفطر 22 اپریل کو ہوگی </t>
+    <t>شوال کا چاند نظر نہیں آیا، عیدالفطر 22 اپریل کو ہوگی</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217550</t>
@@ -337,7 +344,7 @@
     <t>https://jang.com.pk/news/1217547</t>
   </si>
   <si>
-    <t>اسلام آباد اور راولپنڈی کی اہم مساجد میں نماز عید کی ادائیگی کے اوقات جاری </t>
+    <t>اسلام آباد اور راولپنڈی کی اہم مساجد میں نماز عید کی ادائیگی کے اوقات جاری</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217586</t>
@@ -424,7 +431,7 @@
     <t>https://jang.com.pk/news/1217563</t>
   </si>
   <si>
-    <t>عدالت کے حکم پر پنجاب میں الیکشن کیلئے فنڈ جاری نہیں کریں گے، خواجہ آصف </t>
+    <t>عدالت کے حکم پر پنجاب میں الیکشن کیلئے فنڈ جاری نہیں کریں گے، خواجہ آصف</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217574</t>
@@ -460,7 +467,7 @@
     <t>https://jang.com.pk/news/1217542</t>
   </si>
   <si>
-    <t>مفتی شہاب الدین پوپلزئی کا بھی ہفتے کو عید منانے کا اعلان </t>
+    <t>مفتی شہاب الدین پوپلزئی کا بھی ہفتے کو عید منانے کا اعلان</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217573</t>
@@ -562,13 +569,13 @@
     <t>https://jang.com.pk/news/1217532</t>
   </si>
   <si>
-    <t>فیروز خان کو علیزا سلطان کو ہراساں ہونے سے بچانا چاہیے، اُشنا شاہ </t>
+    <t>فیروز خان کو علیزا سلطان کو ہراساں ہونے سے بچانا چاہیے، اُشنا شاہ</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217524</t>
   </si>
   <si>
-    <t>یش راج فلمز کا شاہ رخ خان اور سلمان خان کے مداحوں کیلئے خاص تحفہ </t>
+    <t>یش راج فلمز کا شاہ رخ خان اور سلمان خان کے مداحوں کیلئے خاص تحفہ</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217490</t>
@@ -728,567 +735,15 @@
   </si>
   <si>
     <t>https://jang.com.pk/news/1217544</t>
-  </si>
-  <si>
-    <t>الیکشن تاریخ، سیاسی جماعتیں چاہیں تو گنجائش نکال سکتے ہیں، سپریم کورٹ</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217239</t>
-  </si>
-  <si>
-    <t>مذاکرات میں پیشرفت پر سپریم کورٹ اپنے حکم پر غور کرسکتی ہے، چیف جسٹس</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471875/1</t>
-  </si>
-  <si>
-    <t>تحریک انصاف فارورڈ بلاک کے امیدوار چوہدری انوار الحق بلامقابلہ آزاد کشمیر کے نئے وزیراعظم منتخب</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217266</t>
-  </si>
-  <si>
-    <t>مولانا فضل الرحمٰن کا سپریم کورٹ کی سماعت کے بائیکاٹ کا اعلان، عمران کے ساتھ بیٹھنے سے بھی انکار</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217350</t>
-  </si>
-  <si>
-    <t>صدر مملکت کا نگراں حکومتوں کے زائد قیام کی قانونی حیثیت پر اظہار تشویش</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2472035/1</t>
-  </si>
-  <si>
-    <t>سوموٹو چیف جسٹس نہیں سپریم کورٹ کا اختیار، پاکستان ٹوٹنے کی بڑی وجہ غلط عدالتی فیصلہ، جسٹس فائز عیسیٰ</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217351</t>
-  </si>
-  <si>
-    <t>سپریم کورٹ میں آج طلبی، مشاورت شروع، زرداری اور PTI کا خیر مقدم</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217352</t>
-  </si>
-  <si>
-    <t>قومی احتساب بل سینیٹ میں کثرت رائے سے منظور، اپوزیشن کا احتجاج</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217353</t>
-  </si>
-  <si>
-    <t>PTI دور میں 4 ارب کا قرضہ لینے والے 600 نام پیش کریں، PAC</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217354</t>
-  </si>
-  <si>
-    <t>ہمارے سروں پر بندوق رکھ کر مذاکرات نہیں کروائے جاسکتے، بلاول بھٹو</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471988/1</t>
-  </si>
-  <si>
-    <t>خوف کی ڈوریاں PDM نہیں کسی اور طاقت کے ہاتھوں میں ہے، عمران خان</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217355</t>
-  </si>
-  <si>
-    <t>سعودی، ایران تعلقات کی بحالی سے اسرائیل پریشان، سازشیں شروع</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217356</t>
-  </si>
-  <si>
-    <t>پارلیمان اچھے قوانین بنائے، چیف جسٹس کا اسپیکر کو خط </t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217357</t>
-  </si>
-  <si>
-    <t>نہ عمران خان سے مذاکرات کریں گے اور نہ ہی سپریم کورٹ میں پیش ہوں گے؛ فضل الرحمان</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471971/1</t>
-  </si>
-  <si>
-    <t>آئین کو ری رائٹ کرنے کا اختیار پارلیمنٹ رکھتی ہے عدلیہ نہیں، وزیراعظم</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471969/1</t>
-  </si>
-  <si>
-    <t>زمان پارک میں ممکنہ آپریشن، بشریٰ بی بی کی درخواست جرمانے کے ساتھ خارج</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471939/1</t>
-  </si>
-  <si>
-    <t>وزیر خارجہ شنگھائی تعاون تنظیم اجلاس میں شرکت کیلیے بھارت جائیں گے</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471880/1</t>
-  </si>
-  <si>
-    <t>مقبوضہ کشمیر: ٹرک میں آگ لگنے سے پانچ بھارتی فوجی ہلاک</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2472032/10</t>
-  </si>
-  <si>
-    <t>سعودی اسرائیل تعلقات؛ وزرائے خارجہ کی سطح پر رابطوں کا آغاز</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471933/10</t>
-  </si>
-  <si>
-    <t>مکی آرتھر کو پاکستان کرکٹ ٹیم کا ڈائریکٹر مقرر کردیا گیا</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2472016/16</t>
-  </si>
-  <si>
-    <t>امی رشتہ مانگنے بھائی کے ہمراہ گئی تھیں، شاہین آفریدی کا انکشاف</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471856/16</t>
-  </si>
-  <si>
-    <t>سابق ٹیسٹ کپتان یونس خان کی گورنر سندھ کامران ٹیسوری سے ملاقات</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2472004/16</t>
-  </si>
-  <si>
-    <t>بھارتی گلوکار ہنی سنگھ کے خلاف اغواء اور تشدد کی شکایت درج</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2472074/24</t>
-  </si>
-  <si>
-    <t>’دی لیجنڈ آف مولا جٹ‘ عید کے موقع پر دوبارہ ریلیز کی جائے گی</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471981/24</t>
-  </si>
-  <si>
-    <t>یش چوپڑا کی اہلیہ پامیلا 74 برس کی عمر میں انتقال کرگئیں</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2472040/24</t>
-  </si>
-  <si>
-    <t>فلم ’دوڑ‘ کا لاہور میں رنگا رنگ پریمیئر شو، شوبز ستاروں کی شرکت</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2472009/24</t>
-  </si>
-  <si>
-    <t>شادی سے قبل الیانہ ڈی کروز کے ہاں ننھے مہمان کی آمد نے سب کو حیران کر دیا</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471907/24</t>
-  </si>
-  <si>
-    <t>اسمارٹ فون کے عادی ایک سال میں 3 کلومیٹرطویل اسکرولنگ کررہے ہیں!</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471248/509</t>
-  </si>
-  <si>
-    <t>یہ پینٹ چوروں کو دیوار پھلانگنے سے روک سکتا ہے</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471550/509</t>
-  </si>
-  <si>
-    <t>بیوی کوڈسنے والے سانپ کو شوہر اسپتال لے گیا</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471848/509</t>
-  </si>
-  <si>
-    <t>دماغ کا اسکین کروڑوں گنا صاف دکھانے والی نئی ٹیکنالوجی</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471275/508</t>
-  </si>
-  <si>
-    <t>سال کا پہلا ہائبرڈ سورج گرہن، پاکستان میں نظر نہیں آیا</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471751/508</t>
-  </si>
-  <si>
-    <t>کورونا وباء ذیا بیطس کی وجہ بھی بننے لگی</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471719/9812</t>
-  </si>
-  <si>
-    <t>روشنی سے کام کرنے والا اسٹیکرجو دل کی دھڑکن توازن میں رکھتا ہے</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471704/9812</t>
-  </si>
-  <si>
-    <t>مسلم لیگ ن کا پنجاب الیکشن کیلیے کسی امیدوار کو ٹکٹ نہ دینے کا فیصلہ</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471838/1</t>
-  </si>
-  <si>
-    <t>سالگرہ منا کر واپس گھر جانے والے 4 دوست ٹریفک حادثے میں جاں بحق</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471765/1</t>
-  </si>
-  <si>
-    <t>محکمہ موسمیات کی عید الفطر کے چاند سے متعلق پیش گوئی</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471961/1</t>
-  </si>
-  <si>
-    <t>پاکستان کا کرنٹ اکاؤنٹ خسارہ سرپلس میں تبدیل</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471820/6</t>
-  </si>
-  <si>
-    <t>ٹی وی ڈراموں کی اداکارہ رباب ہاشم کے ہاں ننھی پری کی آمد</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471844/24</t>
-  </si>
-  <si>
-    <t>مسجد الحرام؛ ختم القرآن کے موقع پر 25 لاکھ سے زائد افراد کی شرکت</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471832/10</t>
-  </si>
-  <si>
-    <t>پاکستان میں ’الیکشن کا سوال‘: کیا سیاسی جماعتوں میں مذاکرات ہی اس بحران کا حل ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cjj7w66p2w3o</t>
-  </si>
-  <si>
-    <t>ورلڈ بینک ٹربیونل کی پاکستانی نژاد جج جنھیں بینظیر نے کہا تھا ’مہناز پاکستان کے لیے بہت کچھ کریں گی‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/ckkqke6r0y0o</t>
-  </si>
-  <si>
-    <t>انڈیا میں ایپل کا پہلا ریٹیل سٹور: ’ممبئی میں توانائی، تخلیقی صلاحیت اور جذبہ ناقابل یقین ہے۔‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c04v7pn58k4o</t>
-  </si>
-  <si>
-    <t>’ہم افغانستان میں موجود رہیں گے‘: اقوامِ متحدہ نے افغانستان سے ’مئی میں مکمل انخلا‘ کی خبر کی تردید کر دی</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c8846gzd51no</t>
-  </si>
-  <si>
-    <t>ارجن تندولکر کی آئی پی ایل میں پہلی وکٹ: ’جو باپ نہ کر سکا وہ بیٹے نے کر دیا‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c8v7dgeqj1qo</t>
-  </si>
-  <si>
-    <t>یوسف اوک: سٹیڈیم سے ملنے والے قرآن کے گرد آلود نسخے سے قبولِ اسلام تک کا سفر</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c1vqvwddrdzo</t>
-  </si>
-  <si>
-    <t>دو جرنیلوں کی اقتدار پر قبضے کی جنگ جس نے سوڈان کو تباہی کے دہانے پر لا کھڑا کیا</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/ckv3vgg8vnko</t>
-  </si>
-  <si>
-    <t>نیویارک: نوجوان لڑکی کو قتل کرنے والے شخص کو کوئی افسوس نہیں ہے</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c4njg0j981po</t>
-  </si>
-  <si>
-    <t>نیوزی لینڈ سے ٹی20سیریز میں احسان اللہ کو پلیئنگ الیون کا حصہ ہونا چاہیے تھا،رمیز راجہ</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/19/ramizraja/</t>
-  </si>
-  <si>
-    <t> سابق کپتان شاہد آفریدی نے کراچی میں اپنا برانڈ لانچ کردی</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/19/shahidafridi-4/</t>
-  </si>
-  <si>
-    <t>وٹامن ڈی سپلیمنٹس کی مقبولیت جو سائنسدانوں کو اس کے استعمال کے حوالے سے پریشان کر رہی ہے</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c4n2gemv2xeo</t>
-  </si>
-  <si>
-    <t> کرسٹیانو رونالڈو کی افطار بنانے کی تصویر شیئر</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/19/ronaldo-10/</t>
-  </si>
-  <si>
-    <t>کیا اب معدوم ہوتے جانوروں اور پرندوں کو بچانا مشکل ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c0xqjd9p6v7o</t>
-  </si>
-  <si>
-    <t>کیا شراب نوشی نہ کرنے والوں میں بھی جگر کی بیماری بڑھ رہی ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c06nk3y7z5lo</t>
-  </si>
-  <si>
-    <t>شعیب ملک نے بابراعظم کو قومی ٹیم کی کپتانی چھوڑنے کا مشورہ دیدیا</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/19/babarazamshoaibmalik/</t>
-  </si>
-  <si>
-    <t>آئی پی ایل کے دوران چوری کی وارداتوں میں اضافہ</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/19/increase-in-theft-incidents-during-ipl/</t>
-  </si>
-  <si>
-    <t>سندھ میں خواتین پر تشدد اور کم عمر بچیوں کی شادیوں کے ہزاروں کیسز رپورٹ</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/19/early-age-marriages/</t>
-  </si>
-  <si>
-    <t>پاؤں پائوں چلتے ہوئے چھوٹا بچہ وائٹ ہائوس میں داخل، سکیورٹی اہلکاروںنے پکڑ کر والدین کے حوالے کر دیا </t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/19/white-house-3/</t>
-  </si>
-  <si>
-    <t> نیویارک: کروڑ پتیوں کی تعداد تین لاکھ 40 ہزار،58ارب پتی ہیں</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/19/new-york-the-number-of-millionaires-is-340-thousand-58-billionaires/</t>
-  </si>
-  <si>
-    <t>بھارت دنیا میں سب سے زیادہ آبادی والا ملک بن گیا</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/19/india-58/</t>
-  </si>
-  <si>
-    <t>اماراتی خلا باز نے خلا سے حرمین شریفین کی ویڈیو شیئر کردی</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/19/emirati-astronaut-shared-a-video-of-haram-sharif-from-space/</t>
-  </si>
-  <si>
-    <t>آئی سی سی کی نئی ٹی20 رینکنگ جاری، بابر اور رضوان اپنی پوزیشنز پر برقرار</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1217181</t>
-  </si>
-  <si>
-    <t>فرانسیسی اسپائیڈرمین پینشن قانون کیخلاف احتجاجاً بلند عمارت پر چڑھ گیا</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471527/509</t>
-  </si>
-  <si>
-    <t>کھلونوں کی چاہت میں بچہ ’کلا مشین‘ میں داخل ہوکر پھنس گیا</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471178/509</t>
-  </si>
-  <si>
-    <t>سمندری حیات کی پلاسٹک کے کچرے پر افزائش کا انکشاف</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471272/508</t>
-  </si>
-  <si>
-    <t>برطانیہ میں واٹس ایپ پر پابندی کا خطرہ</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471107/508</t>
-  </si>
-  <si>
-    <t>خاص عینک جو بچوں میں نگاہ کی کمزوری روک سکتی ہے</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471262/9812</t>
-  </si>
-  <si>
-    <t>سائنس دانوں نے طشتری میں دھڑکتا دل بنا لیا</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471150/9812</t>
-  </si>
-  <si>
-    <t>’ہمیں بچا لو، ہر طرف دھواں بھرا ہوا ہے‘: دبئی میں آتشزدگی کے باعث ہلاک ہونے والے تین پاکستانی کزن کون ہیں؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cjryrg01d0do</t>
-  </si>
-  <si>
-    <t>چہرے پرانڈین پرچم کا ٹیٹو، رضاکار نے خاتون کو گولڈن ٹمپل میں داخل ہونےسےروک دیا ’یہ انڈیا نہیں یہ پنجاب ہے‘ </t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c0j7jq84zjwo</t>
-  </si>
-  <si>
-    <t>زوماٹو: اب آپ دلی میں حیدرآبادی بریانی، لکھنوی ٹنڈے کباب اور کولکتہ کے رس گلے کا مزا لے سکتے ہیں</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c51e195qlp7o</t>
-  </si>
-  <si>
-    <t>27 سال بعد ماں بیٹی کا ملاپ: ’اس کا برتھ ڈے آنے والا ہے اور میں نہیں جانتی کہ اسے کیا پسند ہے‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c5141e0yd12o</t>
-  </si>
-  <si>
-    <t>کورونا کے مزید 26مریض رپورٹ ،11  مریضوں کی حالت تشویشناک</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/18/corona-178/</t>
-  </si>
-  <si>
-    <t>خطرناک جنگلی جانور پارلیمنٹ ہاؤس میں داخل</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/18/animal-in-parliamet/</t>
-  </si>
-  <si>
-    <t>نادرا نے فنگر پرنٹس سے شناخت کا جدید ترین خودکار نظام متعارف کرادیا</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/18/nadra-fingerprint/</t>
-  </si>
-  <si>
-    <t>انسانیت کو صفحہ ہستی سے مٹانے کا کام آرٹیفیشل انٹیلی جنس کے سپرد</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/18/artificial-intelligence-2/</t>
-  </si>
-  <si>
-    <t>پاکستان میں فنگر پرنٹس سے شناخت کا جدید ترین خودکار نظام متعارف</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/18/nadra-biometrics/</t>
-  </si>
-  <si>
-    <t>نیپرا نے بجلی کی قیمت میں کمی کی منظوری دے دی</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/18/nepra-has-approved-a-reduction-in-electricity-price-by-6-paise-per-unit/</t>
-  </si>
-  <si>
-    <t>ایپل کے سی ای او، نے بھارت میں پہلے ’ایپل اسٹور‘ کا افتتاح کردیا</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471163/508</t>
-  </si>
-  <si>
-    <t>پھیپڑوں کے کینسر سے متعلق چند اوہام</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2471187/9812</t>
-  </si>
-  <si>
-    <t>اناپورنا سر کرنے کے بعد واپسی کے سفر پر پھنس جانے والے پاکستانی کوہ پیماؤں کو ریسکیو کر لیا گیا</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/crgegn4rkm9o</t>
-  </si>
-  <si>
-    <t>اردو یونیورسٹی کے قائم مقام وائس چانسلر کو انتظامی معاملات سے روک دیا گیا</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/17/fuu-3/</t>
-  </si>
-  <si>
-    <t>پاکستان میں دس  ہزار بچے ہیموفیلیا کا شکار ہیں، ڈاکٹر ثاقب انصاری</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/17/dr-saqib-ansari-3/</t>
-  </si>
-  <si>
-    <t>علی سیٹھی امریکہ میں ’پسوڑی‘ مچانے کو تیار: ’اس تہوار میں جانے کا کوئی وقت تھا، تو وہ اب ہے‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cl70lez18jlo</t>
-  </si>
-  <si>
-    <t>عائشہ الباعونیہ: آٹھ سال کی عمر میں قرآن حفظ کرنے والی سیرت نگار جنھیں ’اپنے وقت کے عجائبات میں سے ایک‘ قرار دیا گیا</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/ckv34pqw5zxo</t>
-  </si>
-  <si>
-    <t>کچھ ان کہی اور قدسیہ علی: ’بیٹا اچھی لگ رہی ہو، تھوڑا سا وزن کم کر لو تو اچھی جگہ رشتہ کروا دوں تمھارا‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cxwjdrggzv9o</t>
-  </si>
-  <si>
-    <t>زبیدہ بنت جعفر: جب عباسی ملکہ نے لاکھوں دینار کی نہر بنوا کر کہا ’حساب قیامت کے دن پر چھوڑتی ہوں‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c2v31exl78no</t>
-  </si>
-  <si>
-    <t>مودی نام پر تنقید: ہتک عزت کیس میں سزا کے خلاف راہل گاندھی کی اپیل مسترد</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c518gek0vyvo</t>
-  </si>
-  <si>
-    <t>گجرات میں احمدی ڈاکٹر کا قتل اور اُن کے مبینہ قاتل کی خودکشی کا معمہ جو سلجھنے کا نام نہیں لے رہا</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cd1y7qx1v0ko</t>
-  </si>
-  <si>
-    <t>بلاول بھٹو شنگھائی تعاون تنظیم کے اجلاس میں شرکت کے لیے انڈیا جائیں گے</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cg3q4r5jdyeo</t>
-  </si>
-  <si>
-    <t>خون آلود سیٹ پر ارشد شریف کے بال، گولیوں کی ٹائمنگ اور آئی فون: متضاد دعوے اور تحقیقات سے جڑے اہم  سوال</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cg3j3ngvv2jo</t>
-  </si>
-  <si>
-    <t>معاشرے میں خواتین کی تضحیک یعنی ’مساجنی‘ عام کیوں؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cy7n155dvppo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -1314,31 +769,335 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.574285714285715" customWidth="1"/>
-    <col min="2" max="2" width="5.144285714285714" customWidth="1"/>
-    <col min="3" max="3" width="9.574285714285713" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1348,10 +1107,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
-      <c r="E1"/>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1395,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1416,8 +1173,11 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1428,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1439,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1450,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1461,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1472,7 +1232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1483,7 +1243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1494,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1505,7 +1265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1516,7 +1276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1527,7 +1287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1538,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1549,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1560,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1571,7 +1331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1582,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1593,7 +1353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1604,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1615,7 +1375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1626,7 +1386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1637,7 +1397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1648,7 +1408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1659,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1670,7 +1430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1681,7 +1441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1692,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1703,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1714,7 +1474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1725,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1736,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1747,7 +1507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -1758,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1769,7 +1529,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1780,7 +1540,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -1791,7 +1551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -1802,7 +1562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -1813,7 +1573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1824,7 +1584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -1835,7 +1595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -1846,7 +1606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -1857,7 +1617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -1868,7 +1628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -1879,7 +1639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -1890,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -1901,7 +1661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -1912,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -1923,7 +1683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -1934,7 +1694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -1945,7 +1705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -1956,7 +1716,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -1967,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -1978,7 +1738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -1989,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -2000,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -2011,7 +1771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -2022,7 +1782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -2033,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -2044,7 +1804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -2055,7 +1815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -2066,7 +1826,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -2077,7 +1837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -2088,7 +1848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -2099,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -2110,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -2121,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -2132,7 +1892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -2143,7 +1903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -2154,7 +1914,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -2165,7 +1925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -2176,7 +1936,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>162</v>
       </c>
@@ -2187,7 +1947,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -2198,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -2209,7 +1969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -2220,7 +1980,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -2231,7 +1991,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -2242,7 +2002,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>174</v>
       </c>
@@ -2253,7 +2013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -2264,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>178</v>
       </c>
@@ -2275,7 +2035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -2286,7 +2046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -2297,7 +2057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -2308,7 +2068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -2319,7 +2079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -2330,7 +2090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -2341,7 +2101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>192</v>
       </c>
@@ -2352,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>194</v>
       </c>
@@ -2363,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>196</v>
       </c>
@@ -2374,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>198</v>
       </c>
@@ -2385,7 +2145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>200</v>
       </c>
@@ -2396,7 +2156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>202</v>
       </c>
@@ -2407,7 +2167,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -2418,7 +2178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>206</v>
       </c>
@@ -2429,7 +2189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -2440,7 +2200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>210</v>
       </c>
@@ -2451,7 +2211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>212</v>
       </c>
@@ -2462,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>214</v>
       </c>
@@ -2473,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>216</v>
       </c>
@@ -2484,7 +2244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>218</v>
       </c>
@@ -2495,7 +2255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>220</v>
       </c>
@@ -2506,7 +2266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>222</v>
       </c>
@@ -2517,1021 +2277,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>224</v>
-      </c>
-      <c r="B108" t="s">
-        <v>225</v>
-      </c>
-      <c r="C108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>226</v>
-      </c>
-      <c r="B109" t="s">
-        <v>227</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>228</v>
-      </c>
-      <c r="B110" t="s">
-        <v>229</v>
-      </c>
-      <c r="C110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>230</v>
-      </c>
-      <c r="B111" t="s">
-        <v>231</v>
-      </c>
-      <c r="C111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>232</v>
-      </c>
-      <c r="B112" t="s">
-        <v>233</v>
-      </c>
-      <c r="C112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>234</v>
-      </c>
-      <c r="B113" t="s">
-        <v>235</v>
-      </c>
-      <c r="C113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>236</v>
-      </c>
-      <c r="B114" t="s">
-        <v>237</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>238</v>
-      </c>
-      <c r="B115" t="s">
-        <v>239</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>240</v>
-      </c>
-      <c r="B116" t="s">
-        <v>241</v>
-      </c>
-      <c r="C116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>242</v>
-      </c>
-      <c r="B117" t="s">
-        <v>243</v>
-      </c>
-      <c r="C117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>244</v>
-      </c>
-      <c r="B118" t="s">
-        <v>245</v>
-      </c>
-      <c r="C118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>246</v>
-      </c>
-      <c r="B119" t="s">
-        <v>247</v>
-      </c>
-      <c r="C119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>248</v>
-      </c>
-      <c r="B120" t="s">
-        <v>249</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>250</v>
-      </c>
-      <c r="B121" t="s">
-        <v>251</v>
-      </c>
-      <c r="C121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>252</v>
-      </c>
-      <c r="B122" t="s">
-        <v>253</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>254</v>
-      </c>
-      <c r="B123" t="s">
-        <v>255</v>
-      </c>
-      <c r="C123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>256</v>
-      </c>
-      <c r="B124" t="s">
-        <v>257</v>
-      </c>
-      <c r="C124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>258</v>
-      </c>
-      <c r="B125" t="s">
-        <v>259</v>
-      </c>
-      <c r="C125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>260</v>
-      </c>
-      <c r="B126" t="s">
-        <v>261</v>
-      </c>
-      <c r="C126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>262</v>
-      </c>
-      <c r="B127" t="s">
-        <v>263</v>
-      </c>
-      <c r="C127" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>264</v>
-      </c>
-      <c r="B128" t="s">
-        <v>265</v>
-      </c>
-      <c r="C128" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>266</v>
-      </c>
-      <c r="B129" t="s">
-        <v>267</v>
-      </c>
-      <c r="C129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>268</v>
-      </c>
-      <c r="B130" t="s">
-        <v>269</v>
-      </c>
-      <c r="C130" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>270</v>
-      </c>
-      <c r="B131" t="s">
-        <v>271</v>
-      </c>
-      <c r="C131" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>272</v>
-      </c>
-      <c r="B132" t="s">
-        <v>273</v>
-      </c>
-      <c r="C132" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>274</v>
-      </c>
-      <c r="B133" t="s">
-        <v>275</v>
-      </c>
-      <c r="C133" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>276</v>
-      </c>
-      <c r="B134" t="s">
-        <v>277</v>
-      </c>
-      <c r="C134" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>278</v>
-      </c>
-      <c r="B135" t="s">
-        <v>279</v>
-      </c>
-      <c r="C135" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>280</v>
-      </c>
-      <c r="B136" t="s">
-        <v>281</v>
-      </c>
-      <c r="C136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>282</v>
-      </c>
-      <c r="B137" t="s">
-        <v>283</v>
-      </c>
-      <c r="C137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>284</v>
-      </c>
-      <c r="B138" t="s">
-        <v>285</v>
-      </c>
-      <c r="C138" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>286</v>
-      </c>
-      <c r="B139" t="s">
-        <v>287</v>
-      </c>
-      <c r="C139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>288</v>
-      </c>
-      <c r="B140" t="s">
-        <v>289</v>
-      </c>
-      <c r="C140" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>290</v>
-      </c>
-      <c r="B141" t="s">
-        <v>291</v>
-      </c>
-      <c r="C141" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>292</v>
-      </c>
-      <c r="B142" t="s">
-        <v>293</v>
-      </c>
-      <c r="C142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>294</v>
-      </c>
-      <c r="B143" t="s">
-        <v>295</v>
-      </c>
-      <c r="C143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>296</v>
-      </c>
-      <c r="B144" t="s">
-        <v>297</v>
-      </c>
-      <c r="C144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>298</v>
-      </c>
-      <c r="B145" t="s">
-        <v>299</v>
-      </c>
-      <c r="C145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>300</v>
-      </c>
-      <c r="B146" t="s">
-        <v>301</v>
-      </c>
-      <c r="C146" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>302</v>
-      </c>
-      <c r="B147" t="s">
-        <v>303</v>
-      </c>
-      <c r="C147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>304</v>
-      </c>
-      <c r="B148" t="s">
-        <v>305</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>306</v>
-      </c>
-      <c r="B149" t="s">
-        <v>307</v>
-      </c>
-      <c r="C149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>308</v>
-      </c>
-      <c r="B150" t="s">
-        <v>309</v>
-      </c>
-      <c r="C150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>310</v>
-      </c>
-      <c r="B151" t="s">
-        <v>311</v>
-      </c>
-      <c r="C151" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>312</v>
-      </c>
-      <c r="B152" t="s">
-        <v>313</v>
-      </c>
-      <c r="C152" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>314</v>
-      </c>
-      <c r="B153" t="s">
-        <v>315</v>
-      </c>
-      <c r="C153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>316</v>
-      </c>
-      <c r="B154" t="s">
-        <v>317</v>
-      </c>
-      <c r="C154" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>318</v>
-      </c>
-      <c r="B155" t="s">
-        <v>319</v>
-      </c>
-      <c r="C155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>320</v>
-      </c>
-      <c r="B156" t="s">
-        <v>321</v>
-      </c>
-      <c r="C156" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>322</v>
-      </c>
-      <c r="B157" t="s">
-        <v>323</v>
-      </c>
-      <c r="C157" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>324</v>
-      </c>
-      <c r="B158" t="s">
-        <v>325</v>
-      </c>
-      <c r="C158" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>326</v>
-      </c>
-      <c r="B159" t="s">
-        <v>327</v>
-      </c>
-      <c r="C159" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>328</v>
-      </c>
-      <c r="B160" t="s">
-        <v>329</v>
-      </c>
-      <c r="C160" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>330</v>
-      </c>
-      <c r="B161" t="s">
-        <v>331</v>
-      </c>
-      <c r="C161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>332</v>
-      </c>
-      <c r="B162" t="s">
-        <v>333</v>
-      </c>
-      <c r="C162" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>334</v>
-      </c>
-      <c r="B163" t="s">
-        <v>335</v>
-      </c>
-      <c r="C163" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>336</v>
-      </c>
-      <c r="B164" t="s">
-        <v>337</v>
-      </c>
-      <c r="C164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>338</v>
-      </c>
-      <c r="B165" t="s">
-        <v>339</v>
-      </c>
-      <c r="C165" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>340</v>
-      </c>
-      <c r="B166" t="s">
-        <v>341</v>
-      </c>
-      <c r="C166" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>342</v>
-      </c>
-      <c r="B167" t="s">
-        <v>343</v>
-      </c>
-      <c r="C167" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>344</v>
-      </c>
-      <c r="B168" t="s">
-        <v>345</v>
-      </c>
-      <c r="C168" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>346</v>
-      </c>
-      <c r="B169" t="s">
-        <v>347</v>
-      </c>
-      <c r="C169" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>348</v>
-      </c>
-      <c r="B170" t="s">
-        <v>349</v>
-      </c>
-      <c r="C170" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>350</v>
-      </c>
-      <c r="B171" t="s">
-        <v>351</v>
-      </c>
-      <c r="C171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>352</v>
-      </c>
-      <c r="B172" t="s">
-        <v>353</v>
-      </c>
-      <c r="C172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>354</v>
-      </c>
-      <c r="B173" t="s">
-        <v>355</v>
-      </c>
-      <c r="C173" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>356</v>
-      </c>
-      <c r="B174" t="s">
-        <v>357</v>
-      </c>
-      <c r="C174" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>358</v>
-      </c>
-      <c r="B175" t="s">
-        <v>359</v>
-      </c>
-      <c r="C175" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>360</v>
-      </c>
-      <c r="B176" t="s">
-        <v>361</v>
-      </c>
-      <c r="C176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>362</v>
-      </c>
-      <c r="B177" t="s">
-        <v>363</v>
-      </c>
-      <c r="C177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>364</v>
-      </c>
-      <c r="B178" t="s">
-        <v>365</v>
-      </c>
-      <c r="C178" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>366</v>
-      </c>
-      <c r="B179" t="s">
-        <v>367</v>
-      </c>
-      <c r="C179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>368</v>
-      </c>
-      <c r="B180" t="s">
-        <v>369</v>
-      </c>
-      <c r="C180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>370</v>
-      </c>
-      <c r="B181" t="s">
-        <v>371</v>
-      </c>
-      <c r="C181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>372</v>
-      </c>
-      <c r="B182" t="s">
-        <v>373</v>
-      </c>
-      <c r="C182" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>374</v>
-      </c>
-      <c r="B183" t="s">
-        <v>375</v>
-      </c>
-      <c r="C183" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>376</v>
-      </c>
-      <c r="B184" t="s">
-        <v>377</v>
-      </c>
-      <c r="C184" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>378</v>
-      </c>
-      <c r="B185" t="s">
-        <v>379</v>
-      </c>
-      <c r="C185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>380</v>
-      </c>
-      <c r="B186" t="s">
-        <v>381</v>
-      </c>
-      <c r="C186" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>382</v>
-      </c>
-      <c r="B187" t="s">
-        <v>383</v>
-      </c>
-      <c r="C187" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>384</v>
-      </c>
-      <c r="B188" t="s">
-        <v>385</v>
-      </c>
-      <c r="C188" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>386</v>
-      </c>
-      <c r="B189" t="s">
-        <v>387</v>
-      </c>
-      <c r="C189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>388</v>
-      </c>
-      <c r="B190" t="s">
-        <v>389</v>
-      </c>
-      <c r="C190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>390</v>
-      </c>
-      <c r="B191" t="s">
-        <v>391</v>
-      </c>
-      <c r="C191" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>392</v>
-      </c>
-      <c r="B192" t="s">
-        <v>393</v>
-      </c>
-      <c r="C192" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>394</v>
-      </c>
-      <c r="B193" t="s">
-        <v>395</v>
-      </c>
-      <c r="C193" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>396</v>
-      </c>
-      <c r="B194" t="s">
-        <v>397</v>
-      </c>
-      <c r="C194" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>398</v>
-      </c>
-      <c r="B195" t="s">
-        <v>399</v>
-      </c>
-      <c r="C195" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>400</v>
-      </c>
-      <c r="B196" t="s">
-        <v>401</v>
-      </c>
-      <c r="C196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>402</v>
-      </c>
-      <c r="B197" t="s">
-        <v>403</v>
-      </c>
-      <c r="C197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>404</v>
-      </c>
-      <c r="B198" t="s">
-        <v>405</v>
-      </c>
-      <c r="C198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>406</v>
-      </c>
-      <c r="B199" t="s">
-        <v>407</v>
-      </c>
-      <c r="C199" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>